--- a/data/result/实验结果-20180626.xlsx
+++ b/data/result/实验结果-20180626.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\workspace\Nplus\nlp-ict\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\workspace\Nplus\HanLP\data\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8C7A5A96-CF3B-40C3-8413-91EF425D4B80}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DEAFE06A-911E-42EC-84D4-915802D3DD7A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{12BCC273-DC47-44FA-9314-B8E23D092E51}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="3" xr2:uid="{12BCC273-DC47-44FA-9314-B8E23D092E51}"/>
   </bookViews>
   <sheets>
     <sheet name="Q35b" sheetId="1" r:id="rId1"/>
     <sheet name="Q50b" sheetId="2" r:id="rId2"/>
     <sheet name="Q50e" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3414" uniqueCount="3124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="3129">
   <si>
     <t>Q35b</t>
   </si>
@@ -7842,9 +7843,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高端大气的，天然有机的产品</t>
-  </si>
-  <si>
     <t>国际化大品牌。</t>
   </si>
   <si>
@@ -7854,9 +7852,6 @@
     <t>是国际品牌</t>
   </si>
   <si>
-    <t>和国际明星合作，展示出企业对于自身的自信，和走向国际化的战略目标</t>
-  </si>
-  <si>
     <t>可以信赖</t>
   </si>
   <si>
@@ -8602,9 +8597,6 @@
   </si>
   <si>
     <t>代言人很漂亮，大大提升了企业形象</t>
-  </si>
-  <si>
-    <t>国际化品牌，时尚的，与众不同的，高档的产品。</t>
   </si>
   <si>
     <t>锁定高端消费者，致力提供优质产品。</t>
@@ -9403,6 +9395,38 @@
   </si>
   <si>
     <t>产品的质量很好，对宝宝的成长有好处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际化品牌，时尚的，与众不同的，高档的产品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端大气的，天然有机的产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和国际明星合作，展示出企业对于自身的自信，和走向国际化的战略目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端大气的，天然有机的产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和国际明星合作，展示出企业对于自身的自信，和走向国际化的战略目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妈妈的爱 国际范 有品味 高品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                关键词：品牌        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余弦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9449,11 +9473,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -21243,8 +21270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C778605F-F324-413B-ABEC-BE54097760C2}">
   <dimension ref="A1:B279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -21255,1154 +21282,1154 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="B1" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="B2" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2604</v>
+        <v>3122</v>
       </c>
       <c r="B3" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="B4" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="B5" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="B6" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2608</v>
+        <v>3123</v>
       </c>
       <c r="B7" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="B8" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="B9" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="B10" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="B11" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="B12" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
       <c r="B13" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
       <c r="B14" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="B15" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>2617</v>
+        <v>2615</v>
       </c>
       <c r="B16" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="B17" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="B18" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="B19" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="B20" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="B21" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="B22" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
       <c r="B23" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
       <c r="B24" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
       <c r="B25" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
       <c r="B26" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="B27" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="B28" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="B29" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="B30" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="B31" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="B32" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="B33" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="B34" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="B35" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="B36" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="B37" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="B38" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="B39" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="B40" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="B41" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="B42" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="B43" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="B44" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="B45" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="B46" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="B47" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="B48" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="B49" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="B50" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="B51" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="B52" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="B53" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="B54" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="B55" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
       <c r="B56" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="B57" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="B58" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="B59" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="B60" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="B61" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="B62" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="B63" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="B64" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="B65" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="B66" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="B67" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="B68" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="B69" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="B70" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="B71" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="B72" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="B73" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="B74" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="B75" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="B76" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="B77" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="B78" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="B79" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="B80" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="B81" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="B82" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="B83" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="B84" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="B85" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="B86" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="B87" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="B88" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="B89" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="B90" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="B91" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="B92" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="B93" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="B94" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="B95" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="B96" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="B97" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="B98" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="B99" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="B100" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="B101" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="B102" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="B103" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="B104" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="B105" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="B106" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="B107" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="B108" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="B109" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="B110" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="B111" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="B112" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="B113" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="B114" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="B115" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="B116" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="B117" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="B118" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="B119" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="B120" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="B121" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="B122" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="B123" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="B124" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="B125" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="B126" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="B127" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="B128" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="B129" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="B130" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="B131" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="B132" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="B133" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="B134" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="B135" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="B136" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="B137" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="B138" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="B139" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="B140" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="B141" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="B142" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="B143" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="B144" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -22415,114 +22442,114 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="B146" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="B147" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="B148" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
       <c r="B149" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="B150" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="B151" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="B152" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="B153" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="B154" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="B155" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="B156" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="B157" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
       <c r="B158" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
       <c r="B159" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -22535,354 +22562,354 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
       <c r="B161" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="B162" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="B163" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="B164" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="B165" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="B166" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="B167" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="B168" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="B169" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="B170" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="B171" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="B172" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="B173" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="B174" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="B175" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="B176" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="B177" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="B178" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="B179" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="B180" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="B181" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="B182" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="B183" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="B184" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="B185" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="B186" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
       <c r="B187" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="B188" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="B189" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
       <c r="B190" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
       <c r="B191" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="B192" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="B193" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="B194" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
       <c r="B195" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="B196" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
       <c r="B197" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
       <c r="B198" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="B199" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="B200" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
       <c r="B201" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="B202" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="B203" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="B204" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -22895,314 +22922,314 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
       <c r="B206" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="B207" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
       <c r="B208" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="B209" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="B210" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
       <c r="B211" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
       <c r="B212" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="B213" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="B214" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
       <c r="B215" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="B216" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
       <c r="B217" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
       <c r="B218" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
       <c r="B219" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
       <c r="B220" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="B221" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
       <c r="B222" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
       <c r="B223" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
       <c r="B224" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="B225" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="B226" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="B227" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
       <c r="B228" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="B229" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>2816</v>
+        <v>2814</v>
       </c>
       <c r="B230" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
       <c r="B231" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
       <c r="B232" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
       <c r="B233" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
       <c r="B234" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="B235" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="B236" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="B237" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="B238" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="B239" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
       <c r="B240" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="B241" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
       <c r="B242" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="B243" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="B244" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -23215,42 +23242,42 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="B246" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="B247" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="B248" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="B249" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="B250" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -23263,230 +23290,282 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="B252" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="B253" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="B254" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="B255" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="B256" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="B257" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="B258" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="B259" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="B260" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="B261" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="B262" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="B263" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="B264" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="B265" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="B266" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="B267" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="B268" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="B269" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="B270" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="B271" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="B272" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="B273" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="B274" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="B275" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="B276" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>2858</v>
+        <v>3121</v>
       </c>
       <c r="B277" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="B278" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="B279" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0298A3D-9945-4DA3-9C30-2227D019B63D}">
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="60.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B3">
+        <v>0.99992000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B4">
+        <v>0.99989300000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B5">
+        <v>0.99987800000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>